--- a/数据整理/stocks/A股/科创板/688278-特宝生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688278-特宝生物.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,179 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688278-特宝生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688278-特宝生物.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -754,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,17 +766,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -785,14 +806,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -801,13 +844,573 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688278-特宝生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688278-特宝生物.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011731</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银安睿混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011732</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银安睿混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +532,592 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -749,13 +1287,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,36 +1344,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012473</t>
+          <t>011731</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+          <t>国投瑞银安睿混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>43.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2784</t>
+          <t>0.0156</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -844,574 +1382,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002938</t>
+          <t>011732</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银证券健康产业灵活配置混合</t>
+          <t>国投瑞银安睿混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>43.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1699</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010371</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成成长进取混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1557</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0789</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>014271</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成北交所两年定开混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>62.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0678</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010372</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成成长进取混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0475</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012474</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014272</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成北交所两年定开混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>62.33</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001495</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方新价值混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>27.37</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002162</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东方新价值混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>27.37</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004166</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007686</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688278-特宝生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688278-特宝生物.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0.87</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -532,6 +549,968 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成多策略混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016062</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>44.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016198</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1117,7 +2096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1287,7 +2266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688278-特宝生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688278-特宝生物.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>1.67</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>0.87</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -549,6 +566,1236 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成多策略混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>016062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3965</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳医药健康混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014122</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>017461</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>017098</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1510,7 +2757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2096,7 +3343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2266,7 +3513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
